--- a/InputData/ccs/CC/CCS Calculations.xlsx
+++ b/InputData/ccs/CC/CCS Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CO/ccs/CC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/ccs/cc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D1F9212-4717-4940-827C-DB55EE2A93DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B8061B-4D1C-954B-9E8E-AD7E351BCA38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="147">
   <si>
     <t>Source:</t>
   </si>
@@ -883,9 +883,6 @@
   </si>
   <si>
     <t>Transportation and Storage Costs ($/tCO2)</t>
-  </si>
-  <si>
-    <t>Colorado</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1032,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -1180,6 +1177,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1521,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1534,25 +1532,25 @@
     <col min="4" max="4" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="60">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1560,52 +1558,52 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="40">
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="58" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1669,7 +1667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A09EAE-4F9C-4AA7-B5E7-0962DD219D21}">
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -3163,8 +3161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3569,7 +3567,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/InputData/ccs/CC/CCS Calculations.xlsx
+++ b/InputData/ccs/CC/CCS Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\ccs\CC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\ccs\CC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715DE207-3FDF-46D8-8287-2B3597E1EC55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D8E63C-85DA-4410-9A83-5EE3DDAEC8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="146">
   <si>
     <t>Source:</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Notes:</t>
-  </si>
-  <si>
-    <t>electricity sector</t>
   </si>
   <si>
     <t>industry sector</t>
@@ -889,10 +886,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="###0;###0"/>
     <numFmt numFmtId="167" formatCode="###0.0000;###0.0000"/>
     <numFmt numFmtId="168" formatCode="###0.00;###0.00"/>
@@ -1032,24 +1028,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1144,12 +1137,6 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1161,12 +1148,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1198,9 +1179,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1238,9 +1219,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1273,26 +1254,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1325,26 +1289,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1520,7 +1467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1532,8 +1479,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>10</v>
+      <c r="A1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1542,7 +1489,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1551,32 +1498,32 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="40">
+      <c r="B6" s="37">
         <v>2021</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="51" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="58" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1585,73 +1532,73 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="52">
+        <v>0.97</v>
+      </c>
+      <c r="B28" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="59">
-        <v>0.97</v>
-      </c>
-      <c r="B28" t="s">
-        <v>145</v>
-      </c>
-    </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="A30" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1674,1479 +1621,1479 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="21" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="21">
+        <v>2148</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1031</v>
+      </c>
+      <c r="E3" s="21">
+        <v>4181</v>
+      </c>
+      <c r="F3" s="21">
+        <v>1845</v>
+      </c>
+      <c r="G3" s="21">
+        <v>1581</v>
+      </c>
+      <c r="H3" s="21">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="22">
+        <v>2365</v>
+      </c>
+      <c r="D4" s="22">
+        <v>1135</v>
+      </c>
+      <c r="E4" s="22">
+        <v>4602</v>
+      </c>
+      <c r="F4" s="22">
+        <v>2031</v>
+      </c>
+      <c r="G4" s="22">
+        <v>1740</v>
+      </c>
+      <c r="H4" s="22">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="24">
-        <v>2148</v>
-      </c>
-      <c r="D3" s="24">
-        <v>1031</v>
-      </c>
-      <c r="E3" s="24">
-        <v>4181</v>
-      </c>
-      <c r="F3" s="24">
-        <v>1845</v>
-      </c>
-      <c r="G3" s="24">
-        <v>1581</v>
-      </c>
-      <c r="H3" s="24">
-        <v>4286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="B5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="22">
+        <v>2743</v>
+      </c>
+      <c r="D5" s="22">
+        <v>1226</v>
+      </c>
+      <c r="E5" s="22">
+        <v>5339</v>
+      </c>
+      <c r="F5" s="22">
+        <v>2194</v>
+      </c>
+      <c r="G5" s="22">
+        <v>1879</v>
+      </c>
+      <c r="H5" s="22">
+        <v>6133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="24">
+        <v>39</v>
+      </c>
+      <c r="D7" s="24">
+        <v>30</v>
+      </c>
+      <c r="E7" s="22">
+        <v>109</v>
+      </c>
+      <c r="F7" s="24">
+        <v>50</v>
+      </c>
+      <c r="G7" s="24">
+        <v>26</v>
+      </c>
+      <c r="H7" s="24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="25">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="D8" s="25">
+        <v>2.8E-3</v>
+      </c>
+      <c r="E8" s="25">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="F8" s="25">
+        <v>1.47E-2</v>
+      </c>
+      <c r="G8" s="25">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="H8" s="25">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="24">
+        <v>20</v>
+      </c>
+      <c r="D9" s="24">
+        <v>20</v>
+      </c>
+      <c r="E9" s="24">
+        <v>20</v>
+      </c>
+      <c r="F9" s="24">
+        <v>20</v>
+      </c>
+      <c r="G9" s="24">
+        <v>20</v>
+      </c>
+      <c r="H9" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="22">
+        <v>7446</v>
+      </c>
+      <c r="D13" s="22">
+        <v>7446</v>
+      </c>
+      <c r="E13" s="22">
+        <v>7008</v>
+      </c>
+      <c r="F13" s="22">
+        <v>3066</v>
+      </c>
+      <c r="G13" s="22">
+        <v>1752</v>
+      </c>
+      <c r="H13" s="22">
+        <v>7446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="25">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="D14" s="25">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="E14" s="25">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="F14" s="25">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0.1133</v>
+      </c>
+      <c r="H14" s="25">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="25">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="D15" s="25">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="E15" s="25">
+        <v>1.55E-2</v>
+      </c>
+      <c r="F15" s="25">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="G15" s="25">
+        <v>1.46E-2</v>
+      </c>
+      <c r="H15" s="25">
+        <v>9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="26">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="D17" s="26">
+        <v>6.76</v>
+      </c>
+      <c r="E17" s="26">
+        <v>12</v>
+      </c>
+      <c r="F17" s="24">
+        <v>0</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0</v>
+      </c>
+      <c r="H17" s="26">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="26">
+        <v>2.08</v>
+      </c>
+      <c r="D18" s="26">
+        <v>4.16</v>
+      </c>
+      <c r="E18" s="26">
+        <v>3.14</v>
+      </c>
+      <c r="F18" s="26">
+        <v>0</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0</v>
+      </c>
+      <c r="H18" s="26">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="25">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="D19" s="25">
+        <v>2.81E-2</v>
+      </c>
+      <c r="E19" s="25">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0</v>
+      </c>
+      <c r="H19" s="25">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="25">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="D20" s="25">
+        <v>5.2299999999999999E-2</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0.1391</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0.1447</v>
+      </c>
+      <c r="H20" s="25">
+        <v>0.10970000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="E21" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="F21" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="H21" s="26">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="25">
+        <v>9.5600000000000004E-2</v>
+      </c>
+      <c r="D22" s="25">
+        <v>8.2299999999999998E-2</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0.1691</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0.1368</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0.17469999999999999</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0.13969999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="25">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="D23" s="25">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="E23" s="25">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="F23" s="25">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="G23" s="25">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="H23" s="25">
+        <v>9.2399999999999996E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29">
+        <v>1.03</v>
+      </c>
+      <c r="D24" s="29">
+        <v>0.89</v>
+      </c>
+      <c r="E24" s="29">
+        <v>1.83</v>
+      </c>
+      <c r="F24" s="29">
+        <v>1.48</v>
+      </c>
+      <c r="G24" s="29">
+        <v>1.89</v>
+      </c>
+      <c r="H24" s="29">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="36">
+        <v>4100</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36">
+        <v>8867</v>
+      </c>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36">
+        <v>2536</v>
+      </c>
+      <c r="I28" s="36">
+        <v>6026</v>
+      </c>
+      <c r="J28" s="37"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38">
+        <v>4514</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38">
+        <v>9762</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38">
+        <v>2792</v>
+      </c>
+      <c r="I29" s="38">
+        <v>6634</v>
+      </c>
+      <c r="J29" s="37"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38">
+        <v>5417</v>
+      </c>
+      <c r="D30" s="38">
+        <v>2336</v>
+      </c>
+      <c r="E30" s="38">
+        <v>11714</v>
+      </c>
+      <c r="F30" s="38">
+        <v>5630</v>
+      </c>
+      <c r="G30" s="38">
+        <v>1431</v>
+      </c>
+      <c r="H30" s="38">
+        <v>3015</v>
+      </c>
+      <c r="I30" s="38">
+        <v>7165</v>
+      </c>
+      <c r="J30" s="37"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39">
+        <v>0.106</v>
+      </c>
+      <c r="D31" s="39">
+        <v>0.106</v>
+      </c>
+      <c r="E31" s="39">
+        <v>0.106</v>
+      </c>
+      <c r="F31" s="39">
+        <v>0.106</v>
+      </c>
+      <c r="G31" s="39">
+        <v>0.106</v>
+      </c>
+      <c r="H31" s="39">
+        <v>0.106</v>
+      </c>
+      <c r="I31" s="39">
+        <v>0.106</v>
+      </c>
+      <c r="J31" s="37"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="36">
+        <v>62</v>
+      </c>
+      <c r="D32" s="36">
+        <v>59</v>
+      </c>
+      <c r="E32" s="36">
+        <v>169</v>
+      </c>
+      <c r="F32" s="36">
+        <v>78</v>
+      </c>
+      <c r="G32" s="36">
+        <v>35</v>
+      </c>
+      <c r="H32" s="36">
+        <v>58</v>
+      </c>
+      <c r="I32" s="36">
+        <v>159</v>
+      </c>
+      <c r="J32" s="37"/>
+      <c r="L32" s="14"/>
+      <c r="Y32" s="33"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="40">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="D33" s="40">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E33" s="40">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="F33" s="40">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="G33" s="40">
+        <v>2.8E-3</v>
+      </c>
+      <c r="H33" s="40">
+        <v>1.41E-2</v>
+      </c>
+      <c r="I33" s="40">
+        <v>1.32E-2</v>
+      </c>
+      <c r="J33" s="37"/>
+      <c r="L33" s="14"/>
+      <c r="Y33" s="34"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="36">
+        <v>20</v>
+      </c>
+      <c r="D34" s="36">
+        <v>20</v>
+      </c>
+      <c r="E34" s="36">
+        <v>20</v>
+      </c>
+      <c r="F34" s="36">
+        <v>20</v>
+      </c>
+      <c r="G34" s="36">
+        <v>20</v>
+      </c>
+      <c r="H34" s="36">
+        <v>20</v>
+      </c>
+      <c r="I34" s="36">
+        <v>20</v>
+      </c>
+      <c r="J34" s="37"/>
+      <c r="L34" s="14"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="25">
-        <v>2365</v>
-      </c>
-      <c r="D4" s="25">
-        <v>1135</v>
-      </c>
-      <c r="E4" s="25">
-        <v>4602</v>
-      </c>
-      <c r="F4" s="25">
-        <v>2031</v>
-      </c>
-      <c r="G4" s="25">
-        <v>1740</v>
-      </c>
-      <c r="H4" s="25">
-        <v>4718</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="25">
-        <v>2743</v>
-      </c>
-      <c r="D5" s="25">
-        <v>1226</v>
-      </c>
-      <c r="E5" s="25">
-        <v>5339</v>
-      </c>
-      <c r="F5" s="25">
-        <v>2194</v>
-      </c>
-      <c r="G5" s="25">
-        <v>1879</v>
-      </c>
-      <c r="H5" s="25">
-        <v>6133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="27">
-        <v>39</v>
-      </c>
-      <c r="D7" s="27">
-        <v>30</v>
-      </c>
-      <c r="E7" s="25">
+      <c r="D35" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="J35" s="37"/>
+      <c r="L35" s="14"/>
+      <c r="Y35" s="32"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="27">
-        <v>50</v>
-      </c>
-      <c r="G7" s="27">
-        <v>26</v>
-      </c>
-      <c r="H7" s="27">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="28">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="D8" s="28">
-        <v>2.8E-3</v>
-      </c>
-      <c r="E8" s="28">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="F8" s="28">
-        <v>1.47E-2</v>
-      </c>
-      <c r="G8" s="28">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="H8" s="28">
-        <v>3.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="27">
-        <v>20</v>
-      </c>
-      <c r="D9" s="27">
-        <v>20</v>
-      </c>
-      <c r="E9" s="27">
-        <v>20</v>
-      </c>
-      <c r="F9" s="27">
-        <v>20</v>
-      </c>
-      <c r="G9" s="27">
-        <v>20</v>
-      </c>
-      <c r="H9" s="27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="25">
-        <v>7446</v>
-      </c>
-      <c r="D13" s="25">
-        <v>7446</v>
-      </c>
-      <c r="E13" s="25">
-        <v>7008</v>
-      </c>
-      <c r="F13" s="25">
-        <v>3066</v>
-      </c>
-      <c r="G13" s="25">
-        <v>1752</v>
-      </c>
-      <c r="H13" s="25">
-        <v>7446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="28">
-        <v>3.8899999999999997E-2</v>
-      </c>
-      <c r="D14" s="28">
-        <v>1.7399999999999999E-2</v>
-      </c>
-      <c r="E14" s="28">
-        <v>8.0500000000000002E-2</v>
-      </c>
-      <c r="F14" s="28">
-        <v>7.5600000000000001E-2</v>
-      </c>
-      <c r="G14" s="28">
-        <v>0.1133</v>
-      </c>
-      <c r="H14" s="28">
-        <v>8.6999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="28">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="D15" s="28">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="E15" s="28">
-        <v>1.55E-2</v>
-      </c>
-      <c r="F15" s="28">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="G15" s="28">
-        <v>1.46E-2</v>
-      </c>
-      <c r="H15" s="28">
-        <v>9.4999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="29">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="D17" s="29">
-        <v>6.76</v>
-      </c>
-      <c r="E17" s="29">
-        <v>12</v>
-      </c>
-      <c r="F17" s="27">
-        <v>0</v>
-      </c>
-      <c r="G17" s="27">
-        <v>0</v>
-      </c>
-      <c r="H17" s="29">
-        <v>11.06</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="29">
-        <v>2.08</v>
-      </c>
-      <c r="D18" s="29">
-        <v>4.16</v>
-      </c>
-      <c r="E18" s="29">
-        <v>3.14</v>
-      </c>
-      <c r="F18" s="29">
-        <v>0</v>
-      </c>
-      <c r="G18" s="29">
-        <v>0</v>
-      </c>
-      <c r="H18" s="29">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="28">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="D19" s="28">
-        <v>2.81E-2</v>
-      </c>
-      <c r="E19" s="28">
-        <v>3.7699999999999997E-2</v>
-      </c>
-      <c r="F19" s="28">
-        <v>0</v>
-      </c>
-      <c r="G19" s="28">
-        <v>0</v>
-      </c>
-      <c r="H19" s="28">
-        <v>9.5999999999999992E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="28">
-        <v>6.5600000000000006E-2</v>
-      </c>
-      <c r="D20" s="28">
-        <v>5.2299999999999999E-2</v>
-      </c>
-      <c r="E20" s="28">
-        <v>0.1391</v>
-      </c>
-      <c r="F20" s="28">
-        <v>0.10680000000000001</v>
-      </c>
-      <c r="G20" s="28">
-        <v>0.1447</v>
-      </c>
-      <c r="H20" s="28">
-        <v>0.10970000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="29">
-        <v>0.03</v>
-      </c>
-      <c r="D21" s="29">
-        <v>0.03</v>
-      </c>
-      <c r="E21" s="29">
-        <v>0.03</v>
-      </c>
-      <c r="F21" s="29">
-        <v>0.03</v>
-      </c>
-      <c r="G21" s="29">
-        <v>0.03</v>
-      </c>
-      <c r="H21" s="29">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="28">
-        <v>9.5600000000000004E-2</v>
-      </c>
-      <c r="D22" s="28">
-        <v>8.2299999999999998E-2</v>
-      </c>
-      <c r="E22" s="28">
-        <v>0.1691</v>
-      </c>
-      <c r="F22" s="28">
-        <v>0.1368</v>
-      </c>
-      <c r="G22" s="28">
-        <v>0.17469999999999999</v>
-      </c>
-      <c r="H22" s="28">
-        <v>0.13969999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="28">
-        <v>9.2399999999999996E-2</v>
-      </c>
-      <c r="D23" s="28">
-        <v>9.2399999999999996E-2</v>
-      </c>
-      <c r="E23" s="28">
-        <v>9.2399999999999996E-2</v>
-      </c>
-      <c r="F23" s="28">
-        <v>9.2399999999999996E-2</v>
-      </c>
-      <c r="G23" s="28">
-        <v>9.2399999999999996E-2</v>
-      </c>
-      <c r="H23" s="28">
-        <v>9.2399999999999996E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32">
-        <v>1.03</v>
-      </c>
-      <c r="D24" s="32">
-        <v>0.89</v>
-      </c>
-      <c r="E24" s="32">
-        <v>1.83</v>
-      </c>
-      <c r="F24" s="32">
-        <v>1.48</v>
-      </c>
-      <c r="G24" s="32">
-        <v>1.89</v>
-      </c>
-      <c r="H24" s="32">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="39">
-        <v>4100</v>
-      </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39">
-        <v>8867</v>
-      </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39">
-        <v>2536</v>
-      </c>
-      <c r="I28" s="39">
-        <v>6026</v>
-      </c>
-      <c r="J28" s="40"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41">
-        <v>4514</v>
-      </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41">
-        <v>9762</v>
-      </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41">
-        <v>2792</v>
-      </c>
-      <c r="I29" s="41">
-        <v>6634</v>
-      </c>
-      <c r="J29" s="40"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41">
-        <v>5417</v>
-      </c>
-      <c r="D30" s="41">
-        <v>2336</v>
-      </c>
-      <c r="E30" s="41">
-        <v>11714</v>
-      </c>
-      <c r="F30" s="41">
-        <v>5630</v>
-      </c>
-      <c r="G30" s="41">
-        <v>1431</v>
-      </c>
-      <c r="H30" s="41">
-        <v>3015</v>
-      </c>
-      <c r="I30" s="41">
-        <v>7165</v>
-      </c>
-      <c r="J30" s="40"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="42">
-        <v>0.106</v>
-      </c>
-      <c r="D31" s="42">
-        <v>0.106</v>
-      </c>
-      <c r="E31" s="42">
-        <v>0.106</v>
-      </c>
-      <c r="F31" s="42">
-        <v>0.106</v>
-      </c>
-      <c r="G31" s="42">
-        <v>0.106</v>
-      </c>
-      <c r="H31" s="42">
-        <v>0.106</v>
-      </c>
-      <c r="I31" s="42">
-        <v>0.106</v>
-      </c>
-      <c r="J31" s="40"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="39">
-        <v>62</v>
-      </c>
-      <c r="D32" s="39">
-        <v>59</v>
-      </c>
-      <c r="E32" s="39">
-        <v>169</v>
-      </c>
-      <c r="F32" s="39">
-        <v>78</v>
-      </c>
-      <c r="G32" s="39">
-        <v>35</v>
-      </c>
-      <c r="H32" s="39">
-        <v>58</v>
-      </c>
-      <c r="I32" s="39">
-        <v>159</v>
-      </c>
-      <c r="J32" s="40"/>
-      <c r="L32" s="17"/>
-      <c r="Y32" s="36"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="18" t="s">
+      <c r="B36" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="43">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="D33" s="43">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="E33" s="43">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="F33" s="43">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="G33" s="43">
-        <v>2.8E-3</v>
-      </c>
-      <c r="H33" s="43">
-        <v>1.41E-2</v>
-      </c>
-      <c r="I33" s="43">
-        <v>1.32E-2</v>
-      </c>
-      <c r="J33" s="40"/>
-      <c r="L33" s="17"/>
-      <c r="Y33" s="37"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="39">
-        <v>20</v>
-      </c>
-      <c r="D34" s="39">
-        <v>20</v>
-      </c>
-      <c r="E34" s="39">
-        <v>20</v>
-      </c>
-      <c r="F34" s="39">
-        <v>20</v>
-      </c>
-      <c r="G34" s="39">
-        <v>20</v>
-      </c>
-      <c r="H34" s="39">
-        <v>20</v>
-      </c>
-      <c r="I34" s="39">
-        <v>20</v>
-      </c>
-      <c r="J34" s="40"/>
-      <c r="L34" s="17"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="18" t="s">
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="I36" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="J36" s="37"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I37" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J37" s="37"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="I35" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="J35" s="40"/>
-      <c r="L35" s="17"/>
-      <c r="Y35" s="35"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="45">
-        <v>0.35</v>
-      </c>
-      <c r="I36" s="45">
-        <v>0.35</v>
-      </c>
-      <c r="J36" s="40"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="52" t="s">
+      <c r="B38" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="45">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I37" s="45">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J37" s="40"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="39">
+      <c r="C38" s="36">
         <f>C35*8760</f>
         <v>7446</v>
       </c>
-      <c r="D38" s="39">
+      <c r="D38" s="36">
         <f t="shared" ref="D38:I38" si="0">D35*8760</f>
         <v>7446</v>
       </c>
-      <c r="E38" s="39">
+      <c r="E38" s="36">
         <f t="shared" si="0"/>
         <v>7008</v>
       </c>
-      <c r="F38" s="39">
+      <c r="F38" s="36">
         <f t="shared" si="0"/>
         <v>7446</v>
       </c>
-      <c r="G38" s="39">
+      <c r="G38" s="36">
         <f t="shared" si="0"/>
         <v>7446</v>
       </c>
-      <c r="H38" s="39">
+      <c r="H38" s="36">
         <f t="shared" si="0"/>
         <v>3679.2</v>
       </c>
-      <c r="I38" s="39">
+      <c r="I38" s="36">
         <f t="shared" si="0"/>
         <v>3679.2</v>
       </c>
-      <c r="J38" s="40"/>
+      <c r="J38" s="37"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="38">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="D39" s="38">
+        <v>3.32E-2</v>
+      </c>
+      <c r="E39" s="38">
+        <v>0.17660000000000001</v>
+      </c>
+      <c r="F39" s="38">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="G39" s="38">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="H39" s="38">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="I39" s="38">
+        <v>0.20580000000000001</v>
+      </c>
+      <c r="J39" s="37"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B40" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="38">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="D40" s="38">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="E40" s="38">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="F40" s="38">
+        <v>1.04E-2</v>
+      </c>
+      <c r="G40" s="38">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="H40" s="38">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="I40" s="38">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="J40" s="37"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="41">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="D39" s="41">
-        <v>3.32E-2</v>
-      </c>
-      <c r="E39" s="41">
-        <v>0.17660000000000001</v>
-      </c>
-      <c r="F39" s="41">
-        <v>7.9899999999999999E-2</v>
-      </c>
-      <c r="G39" s="41">
-        <v>2.0299999999999999E-2</v>
-      </c>
-      <c r="H39" s="41">
-        <v>8.6599999999999996E-2</v>
-      </c>
-      <c r="I39" s="41">
-        <v>0.20580000000000001</v>
-      </c>
-      <c r="J39" s="40"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="16" t="s">
+      <c r="C41" s="43">
+        <v>0.33</v>
+      </c>
+      <c r="D41" s="43">
+        <v>0.45</v>
+      </c>
+      <c r="E41" s="43">
+        <v>0.21</v>
+      </c>
+      <c r="F41" s="43">
+        <v>0.32</v>
+      </c>
+      <c r="G41" s="43">
+        <v>0.53</v>
+      </c>
+      <c r="H41" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="I41" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="J41" s="37"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="38">
+        <v>10.92</v>
+      </c>
+      <c r="D42" s="38">
+        <v>8.02</v>
+      </c>
+      <c r="E42" s="38">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="F42" s="38">
+        <v>11.14</v>
+      </c>
+      <c r="G42" s="38">
+        <v>6.77</v>
+      </c>
+      <c r="H42" s="38">
+        <v>9.02</v>
+      </c>
+      <c r="I42" s="38">
+        <v>12</v>
+      </c>
+      <c r="J42" s="37"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="38">
+        <v>2.08</v>
+      </c>
+      <c r="D43" s="38">
+        <v>4.16</v>
+      </c>
+      <c r="E43" s="38">
+        <v>3.14</v>
+      </c>
+      <c r="F43" s="38">
+        <v>2.08</v>
+      </c>
+      <c r="G43" s="38">
+        <v>4.16</v>
+      </c>
+      <c r="H43" s="38">
+        <v>4.16</v>
+      </c>
+      <c r="I43" s="38">
+        <v>3.14</v>
+      </c>
+      <c r="J43" s="37"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="38">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="D44" s="38">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="E44" s="38">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="F44" s="38">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="G44" s="38">
+        <v>2.81E-2</v>
+      </c>
+      <c r="H44" s="38">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="I44" s="38">
+        <v>3.3E-3</v>
+      </c>
+      <c r="J44" s="37"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="38">
+        <v>0.123</v>
+      </c>
+      <c r="D45" s="38">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="E45" s="38">
+        <v>0.27829999999999999</v>
+      </c>
+      <c r="F45" s="38">
+        <v>0.1298</v>
+      </c>
+      <c r="G45" s="38">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="H45" s="38">
+        <v>0.11940000000000001</v>
+      </c>
+      <c r="I45" s="38">
+        <v>0.26550000000000001</v>
+      </c>
+      <c r="J45" s="37"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="38">
+        <v>0.03</v>
+      </c>
+      <c r="D46" s="38">
+        <v>0.03</v>
+      </c>
+      <c r="E46" s="38">
+        <v>0.03</v>
+      </c>
+      <c r="F46" s="38">
+        <v>0.03</v>
+      </c>
+      <c r="G46" s="38">
+        <v>0.03</v>
+      </c>
+      <c r="H46" s="38">
+        <v>0.04</v>
+      </c>
+      <c r="I46" s="38">
+        <v>0.04</v>
+      </c>
+      <c r="J46" s="37"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="D47" s="38">
+        <v>0.11</v>
+      </c>
+      <c r="E47" s="38">
+        <v>0.31</v>
+      </c>
+      <c r="F47" s="38">
+        <v>0.16</v>
+      </c>
+      <c r="G47" s="38">
+        <v>0.09</v>
+      </c>
+      <c r="H47" s="38">
+        <v>0.16</v>
+      </c>
+      <c r="I47" s="38">
+        <v>0.31</v>
+      </c>
+      <c r="J47" s="37"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="44">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="D48" s="44">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="E48" s="44">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="F48" s="44">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="G48" s="44">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="H48" s="44">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="I48" s="44">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="J48" s="37"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="47"/>
+      <c r="C49" s="38">
+        <v>1.66</v>
+      </c>
+      <c r="D49" s="38">
+        <v>1.24</v>
+      </c>
+      <c r="E49" s="38">
+        <v>3.34</v>
+      </c>
+      <c r="F49" s="38">
+        <v>1.73</v>
+      </c>
+      <c r="G49" s="38">
+        <v>0.97</v>
+      </c>
+      <c r="H49" s="38">
+        <v>1.73</v>
+      </c>
+      <c r="I49" s="38">
+        <v>3.31</v>
+      </c>
+      <c r="J49" s="37"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="38">
+        <v>24.686</v>
+      </c>
+      <c r="D51" s="38">
+        <v>13.7</v>
+      </c>
+      <c r="E51" s="38">
+        <v>24.975000000000001</v>
+      </c>
+      <c r="F51" s="38">
+        <v>24.686</v>
+      </c>
+      <c r="G51" s="38">
+        <v>13.7</v>
+      </c>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="38">
+        <v>0.26960000000000001</v>
+      </c>
+      <c r="D52" s="30">
+        <v>0.10979999999999999</v>
+      </c>
+      <c r="E52" s="30">
+        <v>0.43330000000000002</v>
+      </c>
+      <c r="F52" s="45">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G52" s="45">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="14"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="49">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="D53" s="15">
+        <v>0.4027</v>
+      </c>
+      <c r="E53" s="15">
+        <v>1.5887</v>
+      </c>
+      <c r="F53" s="35">
+        <v>1.0082</v>
+      </c>
+      <c r="G53" s="35">
+        <v>0.34010000000000001</v>
+      </c>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="14"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="41">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="D40" s="41">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="E40" s="41">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="F40" s="41">
-        <v>1.04E-2</v>
-      </c>
-      <c r="G40" s="41">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="H40" s="41">
-        <v>1.5699999999999999E-2</v>
-      </c>
-      <c r="I40" s="41">
-        <v>4.3299999999999998E-2</v>
-      </c>
-      <c r="J40" s="40"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="46">
-        <v>0.33</v>
-      </c>
-      <c r="D41" s="46">
-        <v>0.45</v>
-      </c>
-      <c r="E41" s="46">
-        <v>0.21</v>
-      </c>
-      <c r="F41" s="46">
-        <v>0.32</v>
-      </c>
-      <c r="G41" s="46">
-        <v>0.53</v>
-      </c>
-      <c r="H41" s="46">
-        <v>0.4</v>
-      </c>
-      <c r="I41" s="46">
-        <v>0.3</v>
-      </c>
-      <c r="J41" s="40"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="41">
-        <v>10.92</v>
-      </c>
-      <c r="D42" s="41">
-        <v>8.02</v>
-      </c>
-      <c r="E42" s="41">
-        <v>17.350000000000001</v>
-      </c>
-      <c r="F42" s="41">
-        <v>11.14</v>
-      </c>
-      <c r="G42" s="41">
-        <v>6.77</v>
-      </c>
-      <c r="H42" s="41">
-        <v>9.02</v>
-      </c>
-      <c r="I42" s="41">
-        <v>12</v>
-      </c>
-      <c r="J42" s="40"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="41">
-        <v>2.08</v>
-      </c>
-      <c r="D43" s="41">
-        <v>4.16</v>
-      </c>
-      <c r="E43" s="41">
-        <v>3.14</v>
-      </c>
-      <c r="F43" s="41">
-        <v>2.08</v>
-      </c>
-      <c r="G43" s="41">
-        <v>4.16</v>
-      </c>
-      <c r="H43" s="41">
-        <v>4.16</v>
-      </c>
-      <c r="I43" s="41">
-        <v>3.14</v>
-      </c>
-      <c r="J43" s="40"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="41">
-        <v>2.2700000000000001E-2</v>
-      </c>
-      <c r="D44" s="41">
-        <v>3.3300000000000003E-2</v>
-      </c>
-      <c r="E44" s="41">
-        <v>5.4399999999999997E-2</v>
-      </c>
-      <c r="F44" s="41">
-        <v>2.4299999999999999E-2</v>
-      </c>
-      <c r="G44" s="41">
-        <v>2.81E-2</v>
-      </c>
-      <c r="H44" s="41">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="I44" s="41">
-        <v>3.3E-3</v>
-      </c>
-      <c r="J44" s="40"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="41">
-        <v>0.123</v>
-      </c>
-      <c r="D45" s="41">
-        <v>8.4500000000000006E-2</v>
-      </c>
-      <c r="E45" s="41">
-        <v>0.27829999999999999</v>
-      </c>
-      <c r="F45" s="41">
-        <v>0.1298</v>
-      </c>
-      <c r="G45" s="41">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="H45" s="41">
-        <v>0.11940000000000001</v>
-      </c>
-      <c r="I45" s="41">
-        <v>0.26550000000000001</v>
-      </c>
-      <c r="J45" s="40"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="41">
-        <v>0.03</v>
-      </c>
-      <c r="D46" s="41">
-        <v>0.03</v>
-      </c>
-      <c r="E46" s="41">
-        <v>0.03</v>
-      </c>
-      <c r="F46" s="41">
-        <v>0.03</v>
-      </c>
-      <c r="G46" s="41">
-        <v>0.03</v>
-      </c>
-      <c r="H46" s="41">
-        <v>0.04</v>
-      </c>
-      <c r="I46" s="41">
-        <v>0.04</v>
-      </c>
-      <c r="J46" s="40"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="41">
-        <v>0.15</v>
-      </c>
-      <c r="D47" s="41">
-        <v>0.11</v>
-      </c>
-      <c r="E47" s="41">
-        <v>0.31</v>
-      </c>
-      <c r="F47" s="41">
-        <v>0.16</v>
-      </c>
-      <c r="G47" s="41">
-        <v>0.09</v>
-      </c>
-      <c r="H47" s="41">
-        <v>0.16</v>
-      </c>
-      <c r="I47" s="41">
-        <v>0.31</v>
-      </c>
-      <c r="J47" s="40"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="49">
-        <v>9.2399999999999996E-2</v>
-      </c>
-      <c r="D48" s="49">
-        <v>9.2399999999999996E-2</v>
-      </c>
-      <c r="E48" s="49">
-        <v>9.2399999999999996E-2</v>
-      </c>
-      <c r="F48" s="49">
-        <v>9.2399999999999996E-2</v>
-      </c>
-      <c r="G48" s="49">
-        <v>9.2399999999999996E-2</v>
-      </c>
-      <c r="H48" s="49">
-        <v>9.2399999999999996E-2</v>
-      </c>
-      <c r="I48" s="49">
-        <v>9.2399999999999996E-2</v>
-      </c>
-      <c r="J48" s="40"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="B49" s="53"/>
-      <c r="C49" s="54">
-        <v>1.66</v>
-      </c>
-      <c r="D49" s="54">
-        <v>1.24</v>
-      </c>
-      <c r="E49" s="54">
-        <v>3.34</v>
-      </c>
-      <c r="F49" s="54">
-        <v>1.73</v>
-      </c>
-      <c r="G49" s="54">
-        <v>0.97</v>
-      </c>
-      <c r="H49" s="54">
-        <v>1.73</v>
-      </c>
-      <c r="I49" s="41">
-        <v>3.31</v>
-      </c>
-      <c r="J49" s="40"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="41"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="41">
-        <v>24.686</v>
-      </c>
-      <c r="D51" s="41">
-        <v>13.7</v>
-      </c>
-      <c r="E51" s="41">
-        <v>24.975000000000001</v>
-      </c>
-      <c r="F51" s="41">
-        <v>24.686</v>
-      </c>
-      <c r="G51" s="41">
-        <v>13.7</v>
-      </c>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" s="41">
-        <v>0.26960000000000001</v>
-      </c>
-      <c r="D52" s="33">
-        <v>0.10979999999999999</v>
-      </c>
-      <c r="E52" s="33">
-        <v>0.43330000000000002</v>
-      </c>
-      <c r="F52" s="50">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="G52" s="50">
-        <v>9.2799999999999994E-2</v>
-      </c>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="17"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
+      <c r="C54" s="48">
+        <v>0.95</v>
+      </c>
+      <c r="D54" s="48">
+        <v>0.9</v>
+      </c>
+      <c r="E54" s="48">
+        <v>0.9</v>
+      </c>
+      <c r="F54" s="48">
+        <v>0.95</v>
+      </c>
+      <c r="G54" s="48">
+        <v>1</v>
+      </c>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="56">
-        <v>0.98860000000000003</v>
-      </c>
-      <c r="D53" s="18">
-        <v>0.4027</v>
-      </c>
-      <c r="E53" s="18">
-        <v>1.5887</v>
-      </c>
-      <c r="F53" s="38">
-        <v>1.0082</v>
-      </c>
-      <c r="G53" s="38">
+      <c r="C55" s="38">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="D55" s="38">
+        <v>0.3624</v>
+      </c>
+      <c r="E55" s="38">
+        <v>1.4298</v>
+      </c>
+      <c r="F55" s="38">
+        <v>0.95779999999999998</v>
+      </c>
+      <c r="G55" s="38">
         <v>0.34010000000000001</v>
       </c>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="17"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B54" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="55">
-        <v>0.95</v>
-      </c>
-      <c r="D54" s="55">
-        <v>0.9</v>
-      </c>
-      <c r="E54" s="55">
-        <v>0.9</v>
-      </c>
-      <c r="F54" s="55">
-        <v>0.95</v>
-      </c>
-      <c r="G54" s="55">
-        <v>1</v>
-      </c>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="41">
-        <v>0.93920000000000003</v>
-      </c>
-      <c r="D55" s="41">
-        <v>0.3624</v>
-      </c>
-      <c r="E55" s="41">
-        <v>1.4298</v>
-      </c>
-      <c r="F55" s="41">
-        <v>0.95779999999999998</v>
-      </c>
-      <c r="G55" s="41">
-        <v>0.34010000000000001</v>
-      </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
+      <c r="B56" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="C56" s="38">
+        <v>10</v>
+      </c>
+      <c r="D56" s="38">
+        <v>10</v>
+      </c>
+      <c r="E56" s="38">
+        <v>10</v>
+      </c>
+      <c r="F56" s="38">
+        <v>10</v>
+      </c>
+      <c r="G56" s="38">
+        <v>10</v>
+      </c>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="41">
-        <v>10</v>
-      </c>
-      <c r="D56" s="41">
-        <v>10</v>
-      </c>
-      <c r="E56" s="41">
-        <v>10</v>
-      </c>
-      <c r="F56" s="41">
-        <v>10</v>
-      </c>
-      <c r="G56" s="41">
-        <v>10</v>
-      </c>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B57" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" s="41">
+      <c r="C57" s="38">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="D57" s="41">
+      <c r="D57" s="38">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E57" s="41">
+      <c r="E57" s="38">
         <v>1.43E-2</v>
       </c>
-      <c r="F57" s="41">
+      <c r="F57" s="38">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="G57" s="41">
+      <c r="G57" s="38">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
+      <c r="A58" s="13"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
+      <c r="A59" s="13"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
+      <c r="A60" s="13"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
+      <c r="A61" s="13"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
+      <c r="A62" s="13"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
+      <c r="A63" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3157,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3170,7 +3117,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3178,15 +3125,15 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <f>Data!C30-Data!C5</f>
@@ -3199,20 +3146,20 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="15">
+        <v>134</v>
+      </c>
+      <c r="B4" s="12">
         <f>Data!C31</f>
         <v>0.106</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <f>Data!D31</f>
         <v>0.106</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5">
         <f>Data!C9</f>
@@ -3225,7 +3172,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6">
         <f>B4*B5</f>
@@ -3238,7 +3185,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <f>Data!C53</f>
@@ -3251,7 +3198,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <f>Data!C53-Data!C55</f>
@@ -3264,7 +3211,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <f>B7-B8</f>
@@ -3277,7 +3224,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10">
         <f>Data!C38</f>
@@ -3290,13 +3237,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="13">
+        <v>27</v>
+      </c>
+      <c r="B11" s="11">
         <f>B9*B10/1000</f>
         <v>6.9932831999999996</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <f>C9*C10/1000</f>
         <v>2.6984304000000003</v>
       </c>
@@ -3324,15 +3271,15 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17">
         <f>Data!C32-Data!C7</f>
@@ -3345,7 +3292,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18">
         <f>Data!C33-Data!C8</f>
@@ -3358,7 +3305,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19">
         <f>Data!C38</f>
@@ -3371,7 +3318,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B20">
         <f>Data!C56</f>
@@ -3384,7 +3331,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="8">
         <f>(B17+B18*B19)/B11+B20</f>
@@ -3404,15 +3351,15 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B26">
         <f>Data!C42-Data!C17</f>
@@ -3425,7 +3372,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B27">
         <v>947.8134</v>
@@ -3436,7 +3383,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28">
         <f>Data!C38</f>
@@ -3451,11 +3398,11 @@
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="57">
+      <c r="B29" s="50">
         <f>B26*B27/B11*B28</f>
         <v>2311001.5821976145</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="50">
         <f>C26*C27/C11*C28</f>
         <v>3295377.7152317869</v>
       </c>
@@ -3470,10 +3417,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3483,24 +3430,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
-        <v>13</v>
+      <c r="B1" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10">
-        <f>Calculations!B12*About!$A$28</f>
-        <v>786.29928786524772</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="B2" s="9">
         <f>Calculations!C12*About!$A$28</f>
         <v>845.90063912710139</v>
       </c>
@@ -3515,10 +3453,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3528,24 +3466,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
-        <v>14</v>
+      <c r="B1" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14">
-        <f>Calculations!B21*About!$A$28</f>
-        <v>15.162350502264802</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
+      <c r="B2">
         <f>Calculations!C21*About!$A$28</f>
         <v>30.028000307141511</v>
       </c>
@@ -3560,10 +3489,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3573,8 +3502,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
-        <v>15</v>
+      <c r="B1" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
@@ -3582,15 +3511,6 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <f>Calculations!B29*About!$A$28</f>
-        <v>2241671.5347316861</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
         <f>Calculations!C29*About!$A$28</f>
         <v>3196516.3837748333</v>
       </c>
